--- a/all_output.xlsx
+++ b/all_output.xlsx
@@ -8,15 +8,28 @@
   </bookViews>
   <sheets>
     <sheet name="ACM" sheetId="1" r:id="rId1"/>
+    <sheet name="CYBSDK" sheetId="2" r:id="rId2"/>
+    <sheet name="DEVSUP" sheetId="3" r:id="rId3"/>
+    <sheet name="EDUCATION" sheetId="4" r:id="rId4"/>
+    <sheet name="FISC" sheetId="5" r:id="rId5"/>
+    <sheet name="FORMATION" sheetId="6" r:id="rId6"/>
+    <sheet name="INSTIT" sheetId="7" r:id="rId7"/>
+    <sheet name="JUSTICE" sheetId="8" r:id="rId8"/>
+    <sheet name="KUBE" sheetId="9" r:id="rId9"/>
+    <sheet name="OJVMP" sheetId="10" r:id="rId10"/>
+    <sheet name="OTIA" sheetId="11" r:id="rId11"/>
+    <sheet name="PTEP" sheetId="12" r:id="rId12"/>
+    <sheet name="SES" sheetId="13" r:id="rId13"/>
+    <sheet name="TOOLS" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>repository_name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="214">
+  <si>
+    <t>application</t>
   </si>
   <si>
     <t>cycle</t>
@@ -28,9 +41,15 @@
     <t>reason</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
+    <t>validity</t>
+  </si>
+  <si>
     <t>acm-admin-tools</t>
   </si>
   <si>
@@ -40,22 +59,616 @@
     <t>devex-maven-plugin</t>
   </si>
   <si>
-    <t>Version 2.0.0 is valid as of 2024-10-03. Latest valid version is 2.0.0 (source: ACT-INT) Minimum valid version is 1.x (source: ACT-INT)</t>
+    <t>Version 2.0.0 is valid until 2024-10-15. Latest valid version is 2.0.0. Minimum valid version is 1.x.</t>
+  </si>
+  <si>
+    <t>ACT-INT</t>
   </si>
   <si>
     <t>Compliant</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>Version 8 is outdated as of 2023-01-01. Consider upgrading to 23 (source: end-of-life).</t>
-  </si>
-  <si>
-    <t>Outdated</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>acm-agenda-shared</t>
+  </si>
+  <si>
+    <t>acm-apiged-shared</t>
+  </si>
+  <si>
+    <t>acm-cyber-shared</t>
+  </si>
+  <si>
+    <t>acm-ecm-shared</t>
+  </si>
+  <si>
+    <t>acm-esb-shared</t>
+  </si>
+  <si>
+    <t>acm-finance-shared</t>
+  </si>
+  <si>
+    <t>acm-platform-commons</t>
+  </si>
+  <si>
+    <t>acm-refinf-shared</t>
+  </si>
+  <si>
+    <t>acm-siti-shared</t>
+  </si>
+  <si>
+    <t>acm-temoin</t>
+  </si>
+  <si>
+    <t>cmdgej</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Version 1.1.1 is valid until 2024-12-15. Latest valid version is 2.0.0. Minimum valid version is 1.x.</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>jenkins-library-test</t>
+  </si>
+  <si>
+    <t>skeleton</t>
+  </si>
+  <si>
+    <t>appian-devex-deployer-parent</t>
+  </si>
+  <si>
+    <t>projects-common</t>
+  </si>
+  <si>
+    <t>ecpabo-packaging</t>
+  </si>
+  <si>
+    <t>esaws</t>
+  </si>
+  <si>
+    <t>floraext-packaging</t>
+  </si>
+  <si>
+    <t>flora-packaging</t>
+  </si>
+  <si>
+    <t>floratriton-packaging</t>
+  </si>
+  <si>
+    <t>inexta</t>
+  </si>
+  <si>
+    <t>metedu-commons</t>
+  </si>
+  <si>
+    <t>metedu-proxy</t>
+  </si>
+  <si>
+    <t>servicesfp</t>
+  </si>
+  <si>
+    <t>servicesfp-batch-all</t>
+  </si>
+  <si>
+    <t>barcodegenerator</t>
+  </si>
+  <si>
+    <t>capitastra-capexport</t>
+  </si>
+  <si>
+    <t>capitastra-dokulink</t>
+  </si>
+  <si>
+    <t>capitastra-intercapi</t>
+  </si>
+  <si>
+    <t>capitastra-keycloak</t>
+  </si>
+  <si>
+    <t>csiextractor</t>
+  </si>
+  <si>
+    <t>cybercontextfisc</t>
+  </si>
+  <si>
+    <t>cybercontextfisccommon</t>
+  </si>
+  <si>
+    <t>1.0.19</t>
+  </si>
+  <si>
+    <t>Version 1.0.19 is valid until 2024-12-15. Latest valid version is 2.0.0. Minimum valid version is 1.x.</t>
+  </si>
+  <si>
+    <t>dossier-fiscal-admin</t>
+  </si>
+  <si>
+    <t>dossier-fiscal-alimentation</t>
+  </si>
+  <si>
+    <t>dossier-fiscal-bo</t>
+  </si>
+  <si>
+    <t>e-acompte</t>
+  </si>
+  <si>
+    <t>e-acompte-pm</t>
+  </si>
+  <si>
+    <t>edegrevement</t>
+  </si>
+  <si>
+    <t>e-delai</t>
+  </si>
+  <si>
+    <t>edipmBackOffice</t>
+  </si>
+  <si>
+    <t>efacturereporting</t>
+  </si>
+  <si>
+    <t>e-piecesjustificatives</t>
+  </si>
+  <si>
+    <t>eplanrecouvrement</t>
+  </si>
+  <si>
+    <t>e-vaudtax</t>
+  </si>
+  <si>
+    <t>fidor</t>
+  </si>
+  <si>
+    <t>prest-coordfinancieres</t>
+  </si>
+  <si>
+    <t>prest-dossier-fiscal</t>
+  </si>
+  <si>
+    <t>prest-edipm</t>
+  </si>
+  <si>
+    <t>prest-edpi</t>
+  </si>
+  <si>
+    <t>prest-eppupload</t>
+  </si>
+  <si>
+    <t>prest-fdccat</t>
+  </si>
+  <si>
+    <t>prest-iiespm</t>
+  </si>
+  <si>
+    <t>renseignementspublicsrf</t>
+  </si>
+  <si>
+    <t>sipf-batch-rpt</t>
+  </si>
+  <si>
+    <t>sipf-dist</t>
+  </si>
+  <si>
+    <t>tao-ba-batch-rpt</t>
+  </si>
+  <si>
+    <t>tao-batch-consolidation-pm-rpt</t>
+  </si>
+  <si>
+    <t>tao-batch-consolidation-rpt</t>
+  </si>
+  <si>
+    <t>tao-batch-verification</t>
+  </si>
+  <si>
+    <t>tao-is-batch-rpt</t>
+  </si>
+  <si>
+    <t>tao-pm-batch-rpt</t>
+  </si>
+  <si>
+    <t>tao-pp-batch-extraction-ifd</t>
+  </si>
+  <si>
+    <t>tao-pp-batch-rpt</t>
+  </si>
+  <si>
+    <t>ubr</t>
+  </si>
+  <si>
+    <t>unireg</t>
+  </si>
+  <si>
+    <t>vaudtaxbackupimporter</t>
+  </si>
+  <si>
+    <t>cador</t>
+  </si>
+  <si>
+    <t>cadorfo-prestation</t>
+  </si>
+  <si>
+    <t>e-admission</t>
+  </si>
+  <si>
+    <t>easydoc</t>
+  </si>
+  <si>
+    <t>e-bourse</t>
+  </si>
+  <si>
+    <t>eboursefo</t>
+  </si>
+  <si>
+    <t>econtratfo</t>
+  </si>
+  <si>
+    <t>ecpa</t>
+  </si>
+  <si>
+    <t>einsgym</t>
+  </si>
+  <si>
+    <t>ematu</t>
+  </si>
+  <si>
+    <t>ematu-spec</t>
+  </si>
+  <si>
+    <t>esa-packaging</t>
+  </si>
+  <si>
+    <t>1.0.15</t>
+  </si>
+  <si>
+    <t>Version 1.0.15 is valid until 2024-12-15. Latest valid version is 2.0.0. Minimum valid version is 1.x.</t>
+  </si>
+  <si>
+    <t>fpdemformbo</t>
+  </si>
+  <si>
+    <t>is-academia</t>
+  </si>
+  <si>
+    <t>lagapeo-packaging</t>
+  </si>
+  <si>
+    <t>lagapep</t>
+  </si>
+  <si>
+    <t>neo</t>
+  </si>
+  <si>
+    <t>ogemi</t>
+  </si>
+  <si>
+    <t>ogemipsfo</t>
+  </si>
+  <si>
+    <t>ogemireseaufo</t>
+  </si>
+  <si>
+    <t>pareo</t>
+  </si>
+  <si>
+    <t>pareo-packaging</t>
+  </si>
+  <si>
+    <t>vaudculture</t>
+  </si>
+  <si>
+    <t>arimp</t>
+  </si>
+  <si>
+    <t>bleusiel-blv-publication</t>
+  </si>
+  <si>
+    <t>bleusiel-transverse</t>
+  </si>
+  <si>
+    <t>cahierbulletins</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>isis2</t>
+  </si>
+  <si>
+    <t>stc</t>
+  </si>
+  <si>
+    <t>swissnat</t>
+  </si>
+  <si>
+    <t>rcpv</t>
+  </si>
+  <si>
+    <t>zzz_OLD_kubeconsole</t>
+  </si>
+  <si>
+    <t>zzz_OLD_pocdemo</t>
+  </si>
+  <si>
+    <t>aedcbo</t>
+  </si>
+  <si>
+    <t>aedcfo</t>
+  </si>
+  <si>
+    <t>eaudi</t>
+  </si>
+  <si>
+    <t>egdx-egdj</t>
+  </si>
+  <si>
+    <t>egdx-egdws</t>
+  </si>
+  <si>
+    <t>egdx-egdws-angular-client</t>
+  </si>
+  <si>
+    <t>egdx-migrator</t>
+  </si>
+  <si>
+    <t>ejpd-commons</t>
+  </si>
+  <si>
+    <t>ejpd-elastic</t>
+  </si>
+  <si>
+    <t>ejpd-hcp</t>
+  </si>
+  <si>
+    <t>ejpd-migrator</t>
+  </si>
+  <si>
+    <t>ejpd-publisher</t>
+  </si>
+  <si>
+    <t>ejpd-search-angular-client</t>
+  </si>
+  <si>
+    <t>hrc-forms</t>
+  </si>
+  <si>
+    <t>hrc-internet</t>
+  </si>
+  <si>
+    <t>hrc-ws</t>
+  </si>
+  <si>
+    <t>poursuitesfaillites</t>
+  </si>
+  <si>
+    <t>rcmatic-binaries</t>
+  </si>
+  <si>
+    <t>ZZZ_devex-cli</t>
+  </si>
+  <si>
+    <t>actiscamacfo</t>
+  </si>
+  <si>
+    <t>depotfichierscamac</t>
+  </si>
+  <si>
+    <t>egalite-salariale</t>
+  </si>
+  <si>
+    <t>gafpafo</t>
+  </si>
+  <si>
+    <t>mrq</t>
+  </si>
+  <si>
+    <t>pblbo</t>
+  </si>
+  <si>
+    <t>pblfo</t>
+  </si>
+  <si>
+    <t>prabo</t>
+  </si>
+  <si>
+    <t>prestgopm</t>
+  </si>
+  <si>
+    <t>rcbat</t>
+  </si>
+  <si>
+    <t>rcruefo</t>
+  </si>
+  <si>
+    <t>refaachats</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>Version 1.1.2 is valid until 2024-12-15. Latest valid version is 2.0.0. Minimum valid version is 1.x.</t>
+  </si>
+  <si>
+    <t>sae</t>
+  </si>
+  <si>
+    <t>semisbo</t>
+  </si>
+  <si>
+    <t>sibatcore-jaxb</t>
+  </si>
+  <si>
+    <t>sibat-cyber-common</t>
+  </si>
+  <si>
+    <t>simutfo</t>
+  </si>
+  <si>
+    <t>alc</t>
+  </si>
+  <si>
+    <t>annoncedefibrillateur</t>
+  </si>
+  <si>
+    <t>annoncezar</t>
+  </si>
+  <si>
+    <t>apgm</t>
+  </si>
+  <si>
+    <t>apgm_appian</t>
+  </si>
+  <si>
+    <t>bocovid</t>
+  </si>
+  <si>
+    <t>cas-de-rigueur</t>
+  </si>
+  <si>
+    <t>commandecarnetadressefo</t>
+  </si>
+  <si>
+    <t>contactcovid</t>
+  </si>
+  <si>
+    <t>contactdgcs</t>
+  </si>
+  <si>
+    <t>cpsla</t>
+  </si>
+  <si>
+    <t>cst121a</t>
+  </si>
+  <si>
+    <t>cybersanref</t>
+  </si>
+  <si>
+    <t>cyberspeijira</t>
+  </si>
+  <si>
+    <t>dcish</t>
+  </si>
+  <si>
+    <t>demaut</t>
+  </si>
+  <si>
+    <t>depot-plaques</t>
+  </si>
+  <si>
+    <t>diace</t>
+  </si>
+  <si>
+    <t>divess</t>
+  </si>
+  <si>
+    <t>duplicatasanfo</t>
+  </si>
+  <si>
+    <t>fastap</t>
+  </si>
+  <si>
+    <t>fsi</t>
+  </si>
+  <si>
+    <t>gae</t>
+  </si>
+  <si>
+    <t>gpecs</t>
+  </si>
+  <si>
+    <t>lade-spei</t>
+  </si>
+  <si>
+    <t>medreg</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>parlonscashbo</t>
+  </si>
+  <si>
+    <t>pc-familles</t>
+  </si>
+  <si>
+    <t>pejcartographie</t>
+  </si>
+  <si>
+    <t>portailmis</t>
+  </si>
+  <si>
+    <t>portautfoap</t>
+  </si>
+  <si>
+    <t>preste7721</t>
+  </si>
+  <si>
+    <t>refmat</t>
+  </si>
+  <si>
+    <t>refmat-symic</t>
+  </si>
+  <si>
+    <t>refsante</t>
+  </si>
+  <si>
+    <t>rendezvousovamfo</t>
+  </si>
+  <si>
+    <t>samoa</t>
+  </si>
+  <si>
+    <t>sanchad</t>
+  </si>
+  <si>
+    <t>sira</t>
+  </si>
+  <si>
+    <t>sirademandelicencefo</t>
+  </si>
+  <si>
+    <t>siradispenseexamenfo</t>
+  </si>
+  <si>
+    <t>siraparticulierfo</t>
+  </si>
+  <si>
+    <t>siraparticulierfo-backup</t>
+  </si>
+  <si>
+    <t>sirapreaviscommunalfo</t>
+  </si>
+  <si>
+    <t>sisbo</t>
+  </si>
+  <si>
+    <t>spa</t>
+  </si>
+  <si>
+    <t>confluence-packaging</t>
+  </si>
+  <si>
+    <t>dsigit-packaging</t>
+  </si>
+  <si>
+    <t>happyexchange</t>
+  </si>
+  <si>
+    <t>oldmailgate</t>
+  </si>
+  <si>
+    <t>pingpong</t>
+  </si>
+  <si>
+    <t>pingpongbatch</t>
+  </si>
+  <si>
+    <t>ZZZ_bitbucket-packaging</t>
   </si>
 </sst>
 </file>
@@ -411,13 +1024,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,39 +1046,4918 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
